--- a/Excel Documents/Prijs volgens gewicht.xlsx
+++ b/Excel Documents/Prijs volgens gewicht.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26915"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Boeken (oefenbestanden)\Excel 2013\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelkolb/Documents/PhD/Excel/Excel Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="15255" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,16 +121,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -130,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -149,11 +157,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -169,9 +178,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -209,14 +218,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -249,9 +258,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -281,7 +290,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,20 +466,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="1" max="2" width="9.1640625" style="2"/>
     <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="5" width="9.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -490,7 +499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G2" s="5">
         <v>0</v>
       </c>
@@ -498,7 +507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -521,7 +530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -531,8 +540,13 @@
       <c r="C4" s="5">
         <v>15</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="7">
+        <f>C4*B4</f>
+        <v>30</v>
+      </c>
+      <c r="E4" s="7">
+        <v>12</v>
+      </c>
       <c r="G4" s="5">
         <v>100</v>
       </c>
@@ -540,7 +554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -550,8 +564,13 @@
       <c r="C5" s="5">
         <v>12</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="12">
+        <f t="shared" ref="D5:D9" si="0">C5*B5</f>
+        <v>120</v>
+      </c>
+      <c r="E5" s="7">
+        <v>32</v>
+      </c>
       <c r="G5" s="5">
         <v>150</v>
       </c>
@@ -559,7 +578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -569,8 +588,13 @@
       <c r="C6" s="5">
         <v>24</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="E6" s="7">
+        <v>42</v>
+      </c>
       <c r="G6" s="5">
         <v>200</v>
       </c>
@@ -578,7 +602,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -588,8 +612,13 @@
       <c r="C7" s="5">
         <v>20</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E7" s="7">
+        <v>22</v>
+      </c>
       <c r="G7" s="5">
         <v>250</v>
       </c>
@@ -597,7 +626,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -607,8 +636,13 @@
       <c r="C8" s="5">
         <v>32</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+      <c r="E8" s="7">
+        <v>114.6</v>
+      </c>
       <c r="G8" s="5">
         <v>300</v>
       </c>
@@ -616,7 +650,7 @@
         <v>78.8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -626,8 +660,13 @@
       <c r="C9" s="5">
         <v>26</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="E9" s="7">
+        <v>42</v>
+      </c>
       <c r="G9" s="5">
         <v>350</v>
       </c>
@@ -635,12 +674,15 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="7">
+        <f>SUM(E4:E9)</f>
+        <v>264.60000000000002</v>
+      </c>
       <c r="G10" s="5">
         <v>400</v>
       </c>
@@ -648,14 +690,17 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="8">
         <v>0.21</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7">
+        <f>E10*D11</f>
+        <v>55.566000000000003</v>
+      </c>
       <c r="G11" s="5">
         <v>450</v>
       </c>
@@ -663,12 +708,15 @@
         <v>101.8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="12" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="7">
+        <f>SUM(E10:E11)</f>
+        <v>320.16600000000005</v>
+      </c>
       <c r="G12" s="5">
         <v>500</v>
       </c>
